--- a/0.일정/일정(이수안).xlsx
+++ b/0.일정/일정(이수안).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sooan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bit2019\workspace\MiniProject2\0.일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD7B7E-946B-47CF-A642-1B6E8789C67F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60892814-8F67-4C70-A195-116A84581DA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46A311FF-7F77-44E4-BF7B-AA93D66ADFB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A311FF-7F77-44E4-BF7B-AA93D66ADFB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Css" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>메인페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,11 +39,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지</t>
+    <t>이수안 - 회원 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이수안 - 회원 관리</t>
+    <t>총진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지(내정보)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,6 +131,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -128,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,7 +182,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,29 +503,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD59E3CE-64CE-478D-A1A3-30C71FB9603C}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.59765625" style="1"/>
-    <col min="4" max="4" width="32.59765625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="20.59765625" style="1"/>
+    <col min="1" max="3" width="20.625" style="1"/>
+    <col min="4" max="4" width="32.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -502,27 +540,45 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43546</v>
       </c>
       <c r="B3" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="H3" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43547</v>
       </c>
@@ -530,8 +586,11 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43548</v>
       </c>
@@ -539,8 +598,11 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43549</v>
       </c>
@@ -548,8 +610,11 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43550</v>
       </c>
@@ -557,8 +622,11 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43551</v>
       </c>
@@ -566,8 +634,11 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43552</v>
       </c>
@@ -575,8 +646,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43553</v>
       </c>
@@ -584,104 +658,107 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0.일정/일정(이수안).xlsx
+++ b/0.일정/일정(이수안).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bit2019\workspace\MiniProject2\0.일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bit2019\miniproject2\0.일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60892814-8F67-4C70-A195-116A84581DA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81732C20-DCE3-477A-B949-3A39153FB173}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A311FF-7F77-44E4-BF7B-AA93D66ADFB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46A311FF-7F77-44E4-BF7B-AA93D66ADFB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Css" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>메인페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>총진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>찜목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -503,20 +499,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD59E3CE-64CE-478D-A1A3-30C71FB9603C}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="20.625" style="1"/>
-    <col min="4" max="4" width="32.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="20.625" style="1"/>
+    <col min="1" max="3" width="20.59765625" style="1"/>
+    <col min="4" max="4" width="32.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -526,9 +522,8 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -540,19 +535,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>43546</v>
       </c>
@@ -566,79 +558,131 @@
         <v>1</v>
       </c>
       <c r="E3" s="6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>43547</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>43548</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>43549</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>43550</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>43551</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>43552</v>
       </c>
@@ -648,9 +692,8 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>43553</v>
       </c>
@@ -660,105 +703,104 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
